--- a/public/excel/DownloadCrawling_nodejs.xlsx
+++ b/public/excel/DownloadCrawling_nodejs.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,198 +408,44 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>CAPOzbRp4h-/</v>
+        <v>CAz2tm8p9Wb</v>
       </c>
       <c r="B2" t="str">
-        <v>2020-05-16</v>
+        <v>2020-05-30</v>
       </c>
       <c r="C2" t="str">
-        <v>Boho_Garden</v>
+        <v>Chodole</v>
       </c>
       <c r="D2" t="str">
-        <v>Contents_3</v>
+        <v>Contents_1</v>
       </c>
       <c r="E2" t="str">
-        <v>https://scontent-gmp1-1.cdninstagram.com/v/t51.2885-15/e35/s1080x1080/98078685_2694645830804917_3173157752305843689_n.jpg?_nc_ht=scontent-gmp1-1.cdninstagram.com&amp;_nc_cat=101&amp;_nc_ohc=9JwYDeDtItsAX_YaofF&amp;oh=4f580cdaa52fd25a45dbfe3e95728c71&amp;oe=5EF83709</v>
+        <v>https://scontent-gmp1-1.cdninstagram.com/v/t51.2885-15/e35/101411152_268007431220159_6822576621542585033_n.jpg?_nc_ht=scontent-gmp1-1.cdninstagram.com&amp;_nc_cat=111&amp;_nc_ohc=TPofdXmxbJgAX-TSbwL&amp;oh=17f6b69234c7f5e9f04f0f1578b1da8d&amp;oe=5EFDD535</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="G2" t="str">
         <v/>
       </c>
       <c r="H2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Hot trend quần ống suông thần thánh về đủ màu cho nàng!!
-▪️ Size: SML
-▪️ Giá: 195.000đ</v>
-      </c>
-    </row>
-    <row r="3" xml:space="preserve">
-      <c r="A3" t="str">
-        <v>CAPOzbRp4h-/</v>
-      </c>
-      <c r="B3" t="str">
-        <v>2020-05-16</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Boho_Garden</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Contents_4</v>
-      </c>
-      <c r="E3" t="str">
-        <v>https://scontent-gmp1-1.cdninstagram.com/v/t51.2885-15/e35/s1080x1080/97218366_2376240942676026_894378858683758758_n.jpg?_nc_ht=scontent-gmp1-1.cdninstagram.com&amp;_nc_cat=106&amp;_nc_ohc=cC8xUWDlYsIAX-zw7rb&amp;oh=a8a9e66bdc9a22a4b226ef774ca66d00&amp;oe=5EF8F6AA</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str" xml:space="preserve">
-        <v xml:space="preserve">Hot trend quần ống suông thần thánh về đủ màu cho nàng!!
-▪️ Size: SML
-▪️ Giá: 195.000đ</v>
-      </c>
-    </row>
-    <row r="4" xml:space="preserve">
-      <c r="A4" t="str">
-        <v>CAPKR-Npr8c/</v>
-      </c>
-      <c r="B4" t="str">
-        <v>2020-05-16</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Boho_Garden</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Contents_1</v>
-      </c>
-      <c r="E4" t="str">
-        <v>https://scontent-gmp1-1.cdninstagram.com/v/t51.2885-15/e35/s1080x1080/97208209_901342196945392_841411591468943691_n.jpg?_nc_ht=scontent-gmp1-1.cdninstagram.com&amp;_nc_cat=104&amp;_nc_ohc=PJS_58JZz_MAX_Fm_t8&amp;oh=3fdae17e3ebdcb5af7438cec762ea9ef&amp;oe=5EF80A66</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str" xml:space="preserve">
-        <v xml:space="preserve">#tuicoi Một em túi cói xịn cho cuối tuần thêm xinh 🌿 
-#zerowaste #zerowastesg #cafesg #saigoncafe</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5" t="str">
-        <v>CAPKR-Npr8c/</v>
-      </c>
-      <c r="B5" t="str">
-        <v>2020-05-16</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Boho_Garden</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Contents_2</v>
-      </c>
-      <c r="E5" t="str">
-        <v>https://scontent-gmp1-1.cdninstagram.com/v/t51.2885-15/e35/s1080x1080/96940024_243117963578750_2494869172362049113_n.jpg?_nc_ht=scontent-gmp1-1.cdninstagram.com&amp;_nc_cat=102&amp;_nc_ohc=UwkqAFrTlWsAX8ilssz&amp;oh=14ddf3f4ced7b9761bb76e31f4d4c2ea&amp;oe=5EFA59AD</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5" t="str">
-        <v/>
-      </c>
-      <c r="H5" t="str" xml:space="preserve">
-        <v xml:space="preserve">#tuicoi Một em túi cói xịn cho cuối tuần thêm xinh 🌿 
-#zerowaste #zerowastesg #cafesg #saigoncafe</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str">
-        <v>CAPKR-Npr8c/</v>
-      </c>
-      <c r="B6" t="str">
-        <v>2020-05-16</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Boho_Garden</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Contents_3</v>
-      </c>
-      <c r="E6" t="str">
-        <v>https://scontent-gmp1-1.cdninstagram.com/v/t51.2885-15/e35/s1080x1080/97070487_252114959363319_2555905050493820577_n.jpg?_nc_ht=scontent-gmp1-1.cdninstagram.com&amp;_nc_cat=103&amp;_nc_ohc=mRb-w9g-gP8AX_PrUrq&amp;oh=f9e28242a94541d41e6707fd5c60e7f2&amp;oe=5EFA9BD8</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
-      <c r="H6" t="str" xml:space="preserve">
-        <v xml:space="preserve">#tuicoi Một em túi cói xịn cho cuối tuần thêm xinh 🌿 
-#zerowaste #zerowastesg #cafesg #saigoncafe</v>
-      </c>
-    </row>
-    <row r="7" xml:space="preserve">
-      <c r="A7" t="str">
-        <v>CAPKR-Npr8c/</v>
-      </c>
-      <c r="B7" t="str">
-        <v>2020-05-16</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Boho_Garden</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Contents_4</v>
-      </c>
-      <c r="E7" t="str">
-        <v>https://scontent-gmp1-1.cdninstagram.com/v/t51.2885-15/e35/s1080x1080/96826637_635439883848406_1197096944708427069_n.jpg?_nc_ht=scontent-gmp1-1.cdninstagram.com&amp;_nc_cat=110&amp;_nc_ohc=DBRuuwcr2ZwAX_MW8zV&amp;oh=7515060d5776019e5afff007875fd9aa&amp;oe=5EFA697E</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7" t="str">
-        <v/>
-      </c>
-      <c r="H7" t="str" xml:space="preserve">
-        <v xml:space="preserve">#tuicoi Một em túi cói xịn cho cuối tuần thêm xinh 🌿 
-#zerowaste #zerowastesg #cafesg #saigoncafe</v>
-      </c>
-    </row>
-    <row r="8" xml:space="preserve">
-      <c r="A8" t="str">
-        <v>CAPKR-Npr8c/</v>
-      </c>
-      <c r="B8" t="str">
-        <v>2020-05-16</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Boho_Garden</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Contents_5</v>
-      </c>
-      <c r="E8" t="str">
-        <v>https://scontent-gmp1-1.cdninstagram.com/v/t51.2885-15/e35/s1080x1080/97135928_108002270798663_1950695370693193119_n.jpg?_nc_ht=scontent-gmp1-1.cdninstagram.com&amp;_nc_cat=111&amp;_nc_ohc=aHkiZaJktx4AX-l9HTi&amp;oh=7d0407a3ba26aac2746b9f585f8dff25&amp;oe=5EFA6371</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8" t="str">
-        <v/>
-      </c>
-      <c r="H8" t="str" xml:space="preserve">
-        <v xml:space="preserve">#tuicoi Một em túi cói xịn cho cuối tuần thêm xinh 🌿 
-#zerowaste #zerowastesg #cafesg #saigoncafe</v>
+        <v xml:space="preserve">Các mẫu vớ colourful socks đang được upload trên web để các bạn có thể mua online cuối tuần ạ.
+----
+Mua hàng tại 🌍 www.chodole.com
+Nhập ngay code CDL10 để được giảm ngay 10%, khi mua hàng tại website của chodole. 
+IG : www.instagram.com/chodole
+Ngoài ra, tụi mình còn có mặt tại các website mua sắm bên dưới:
+www.shopee.vn/suvistore
+www.dosi-in.com/chodole
+www.lazada.vn/shop/chodole
+----
+Address: 68/34 Út Tịch, Phường 4,Tân Bình.
+Mobile 0703666452</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
   </ignoredErrors>
 </worksheet>
 </file>